--- a/biology/Médecine/Ligament_métatarsien_transverse_profond/Ligament_métatarsien_transverse_profond.xlsx
+++ b/biology/Médecine/Ligament_métatarsien_transverse_profond/Ligament_métatarsien_transverse_profond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9tatarsien_transverse_profond</t>
+          <t>Ligament_métatarsien_transverse_profond</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament métatarsien transverse profond (ou ligament transverse profond de la plante) est un ligament commun aux cinq articulations métatarso-phalangiennes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9tatarsien_transverse_profond</t>
+          <t>Ligament_métatarsien_transverse_profond</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament métatarsien transverse profond est une bande fibreuse étroite qui traverse transversalement le métatarse et relie les têtes de tous les os métatarsiens. 
 Il se confond en avant avec les ligaments plantaires des articulations métatarso-phalangiennes.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9tatarsien_transverse_profond</t>
+          <t>Ligament_métatarsien_transverse_profond</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nerfs plantaires médial ou latéral peuvent être comprimés par le ligament métatarsien transverse, comme dans le névrome de Morton, entrainant une douleur métatarsienne (métatarsalgie)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nerfs plantaires médial ou latéral peuvent être comprimés par le ligament métatarsien transverse, comme dans le névrome de Morton, entrainant une douleur métatarsienne (métatarsalgie).
 </t>
         </is>
       </c>
